--- a/biology/Médecine/Triade_de_la_femme_sportive/Triade_de_la_femme_sportive.xlsx
+++ b/biology/Médecine/Triade_de_la_femme_sportive/Triade_de_la_femme_sportive.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La triade de la femme sportive, triade de l'athlète féminin, ou encore triade de la femme athlète, désigne des troubles du comportement alimentaire, des troubles du cycles menstruels et une diminution de la masse osseuse qui peuvent toucher les femmes pratiquant un sport à un niveau professionnel comme amateur[1],[2].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La triade de la femme sportive, triade de l'athlète féminin, ou encore triade de la femme athlète, désigne des troubles du comportement alimentaire, des troubles du cycles menstruels et une diminution de la masse osseuse qui peuvent toucher les femmes pratiquant un sport à un niveau professionnel comme amateur,.
 </t>
         </is>
       </c>
